--- a/medicine/Enfance/Ascenseur_pour_la_peur/Ascenseur_pour_la_peur.xlsx
+++ b/medicine/Enfance/Ascenseur_pour_la_peur/Ascenseur_pour_la_peur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascenseur pour la peur (The Ersatz Elevator) est le sixième tome de la série Les Désastreuses Aventures des orphelins Baudelaire de Lemony Snicket.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de leur exclusion du collège où M. Poe les avait « casés », Violette, Klaus et Prunille se retrouvent chez de nouveaux tuteurs : Jérôme d'Eschemizerre, tuteur attentionné, prêt à sacrifier certains plaisirs pour ces enfants, et Esmé Gigi Genivieve d'Eschemizerre, 6e conseillère financière et grande victime de la mode, préoccupée uniquement de ce qui est in et out.
 Peu de temps après leur arrivée, les orphelins font la connaissance de Gunther, commissaire-priseur qui ne fait que des enchères sur des articles à la mode, qui débarque chez les d'Eschemizerre. Les jeunes Baudelaire n'ont besoin que d'un léger coup d'œil pour voir que ce commissaire-priseur n'est autre que le comte Olaf sous un nouveau déguisement, une fois de plus. Mais évidemment, leurs tuteurs ne croient pas un mot de leurs dires. 
@@ -547,7 +561,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte le roman dans le troisième et quatrième épisodes de la deuxième saison.
 </t>
